--- a/data/tidy.xlsx
+++ b/data/tidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\04_STAFF\MARCUS\03_GIT\cerf-os-workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\04_STAFF\MARCUS\03_GIT\tbep-os-workshop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ECFB7C-819D-41E7-B041-5E55BF3B8737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B2808-9262-4231-AF87-1C1F0CC61E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="1575" windowWidth="25590" windowHeight="11850" xr2:uid="{666A0E69-F0B2-4F8E-A378-BC2BB5FB3125}"/>
+    <workbookView xWindow="4635" yWindow="1305" windowWidth="21600" windowHeight="13380" xr2:uid="{666A0E69-F0B2-4F8E-A378-BC2BB5FB3125}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>acres</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,10 +444,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>519</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>742</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>930</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>680</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>611</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>737</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>719</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>875</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>702</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>886</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>351</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>719</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>809</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>731</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>375</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>724</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>505</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>964</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>765</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>357</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>871</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>944</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>998</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
